--- a/userDataStorage/userOne/mockData.xlsx
+++ b/userDataStorage/userOne/mockData.xlsx
@@ -1,73 +1,106 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="Calc"/>
+  <workbookPr backupFile="false" showObjects="all" date1904="false"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet 1" sheetId="1" state="visible" r:id="rId2"/>
   </sheets>
+  <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
+  <extLst>
+    <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
+      <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>Email</t>
-  </si>
-  <si>
-    <t>Имя</t>
-  </si>
-  <si>
-    <t>Фамилия</t>
-  </si>
-  <si>
-    <t>Группа</t>
-  </si>
-  <si>
-    <t>Оценка</t>
-  </si>
-  <si>
-    <t>filippov0705@gmail.com</t>
-  </si>
-  <si>
-    <t>Иван</t>
-  </si>
-  <si>
-    <t>Иванов</t>
-  </si>
-  <si>
-    <t>Пётр</t>
-  </si>
-  <si>
-    <t>Сидоров</t>
-  </si>
-  <si>
-    <t>Сергей</t>
-  </si>
-  <si>
-    <t>Петров</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="12">
+  <si>
+    <t xml:space="preserve">Email</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Имя</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Фамилия</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Группа</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Оценка</t>
+  </si>
+  <si>
+    <t xml:space="preserve">filippov0705@gmail.com</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иван</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Иванов</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Пётр</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сидоров</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Сергей</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Петров</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="1">
-    <numFmt formatCode="###; (###); -" numFmtId="164"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="2">
+    <numFmt numFmtId="164" formatCode="General"/>
+    <numFmt numFmtId="165" formatCode="###;\(###\);\-"/>
   </numFmts>
-  <fonts count="2">
-    <font>
-      <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
-      <family val="1"/>
+  <fonts count="6">
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="0"/>
     </font>
     <font>
       <sz val="9"/>
       <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="1"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <i val="true"/>
+      <sz val="9"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="1"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -79,7 +112,7 @@
     </fill>
   </fills>
   <borders count="1">
-    <border>
+    <border diagonalUp="false" diagonalDown="false">
       <left/>
       <right/>
       <top/>
@@ -87,22 +120,73 @@
       <diagonal/>
     </border>
   </borders>
-  <cellXfs count="2">
-    <xf applyFont="1" fontId="0"/>
-    <xf applyFont="1" fontId="1" applyNumberFormat="1" numFmtId="164"/>
+  <cellStyleXfs count="20">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="true" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="43" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="44" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+    <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
+  </cellStyleXfs>
+  <cellXfs count="3">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="165" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
   </cellXfs>
+  <cellStyles count="6">
+    <cellStyle name="Normal" xfId="0" builtinId="0" customBuiltin="false"/>
+    <cellStyle name="Comma" xfId="15" builtinId="3" customBuiltin="false"/>
+    <cellStyle name="Comma [0]" xfId="16" builtinId="6" customBuiltin="false"/>
+    <cellStyle name="Currency" xfId="17" builtinId="4" customBuiltin="false"/>
+    <cellStyle name="Currency [0]" xfId="18" builtinId="7" customBuiltin="false"/>
+    <cellStyle name="Percent" xfId="19" builtinId="5" customBuiltin="false"/>
+  </cellStyles>
 </styleSheet>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
   <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView showGridLines="1" workbookViewId="0" rightToLeft="0" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="E13" activeCellId="0" sqref="E13"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="16"/>
+  <sheetFormatPr defaultRowHeight="16" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <cols>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1025" min="1" style="0" width="14.45"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5">
+    <row r="1" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -119,7 +203,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:5">
+    <row r="2" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -136,7 +220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:5">
+    <row r="3" customFormat="false" ht="16" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A3" s="1" t="s">
         <v>5</v>
       </c>
@@ -153,14 +237,14 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:5">
+    <row r="4" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B4" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="C4" s="1" t="s">
+      <c r="C4" s="2" t="s">
         <v>11</v>
       </c>
       <c r="D4" s="1" t="n">
@@ -171,6 +255,12 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.511805555555555" footer="0.511805555555555"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader/>
+    <oddFooter/>
+  </headerFooter>
 </worksheet>
 </file>